--- a/Supplementary_6_Hallmark lncRNAs.xlsx
+++ b/Supplementary_6_Hallmark lncRNAs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanvir\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C9931A1E-FB74-4BDA-B2C4-6852E9823334}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0C24D74D-9D12-4320-9CCB-0B30E842D36B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="21" uniqueCount="17">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="22" uniqueCount="18">
   <si>
     <t>Cancer_Hallmark</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>FEZF1-AS1;GATA6-AS1;HNF1A-AS1</t>
+  </si>
+  <si>
+    <t>Supplementary 6: Hallmark lncRNAs</t>
   </si>
 </sst>
 </file>
@@ -567,9 +570,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -652,7 +657,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cancer_Hallmark!$C$1</c:f>
+              <c:f>Cancer_Hallmark!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1878,7 +1883,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Cancer_Hallmark!$A$2:$A$5</c:f>
+              <c:f>Cancer_Hallmark!$A$3:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1898,7 +1903,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cancer_Hallmark!$C$2:$C$5</c:f>
+              <c:f>Cancer_Hallmark!$C$3:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2571,13 +2576,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>121285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2905,167 +2910,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.6899999999999999E-6</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1.1800000000000001E-5</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.1800000000000001E-5</v>
-      </c>
-      <c r="I2">
-        <v>2.1100000000000001E-2</v>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>3.9100000000000003E-2</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>7.6199999999999995E-5</v>
-      </c>
-      <c r="G3">
-        <v>2.6699999999999998E-4</v>
-      </c>
-      <c r="H3">
-        <v>5.3300000000000005E-4</v>
+        <v>1.6899999999999999E-6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.1800000000000001E-5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.1800000000000001E-5</v>
       </c>
       <c r="I3">
-        <v>1.5699999999999999E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>3.15E-2</v>
-      </c>
-      <c r="F4">
-        <v>1.84E-4</v>
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7.6199999999999995E-5</v>
       </c>
       <c r="G4">
-        <v>4.2900000000000002E-4</v>
+        <v>2.6699999999999998E-4</v>
       </c>
       <c r="H4">
-        <v>1.2899999999999999E-3</v>
+        <v>5.3300000000000005E-4</v>
       </c>
       <c r="I4">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>3.15E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.84E-4</v>
+      </c>
+      <c r="G5">
+        <v>4.2900000000000002E-4</v>
+      </c>
+      <c r="H5">
+        <v>1.2899999999999999E-3</v>
+      </c>
+      <c r="I5">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>2.5899999999999999E-2</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>2.1700000000000001E-3</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>3.8E-3</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>1.52E-2</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>1.24E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>